--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="989" firstSheet="4" activeTab="4"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$E$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="183">
   <si>
     <t>Id</t>
   </si>
@@ -241,18 +241,27 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
     <t>Density</t>
   </si>
   <si>
     <t>Density units</t>
   </si>
   <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -262,15 +271,21 @@
     <t>physical_3d</t>
   </si>
   <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
     <t>g ml^-1</t>
   </si>
   <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>e</t>
   </si>
   <si>
@@ -395,9 +410,6 @@
   </si>
   <si>
     <t>dist-init-conc-specie_1[e]</t>
-  </si>
-  <si>
-    <t>normal</t>
   </si>
   <si>
     <t>M</t>
@@ -669,14 +681,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -704,16 +716,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -724,16 +758,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,22 +774,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -777,37 +798,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,21 +806,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,9 +821,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -859,6 +851,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,7 +878,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,25 +908,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,31 +968,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,7 +1040,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,97 +1058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,15 +1090,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1111,6 +1101,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,47 +1170,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1182,140 +1181,140 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1329,18 +1328,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1359,10 +1349,10 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1371,28 +1361,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1797,7 +1775,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1805,7 +1783,7 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1813,7 +1791,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1821,7 +1799,7 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1829,7 +1807,7 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1837,7 +1815,7 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1845,7 +1823,7 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1926,7 +1904,7 @@
     <col min="4" max="4" width="42" style="2"/>
     <col min="5" max="9" width="8.78333333333333" style="2"/>
     <col min="10" max="1025" width="8.78333333333333" style="1"/>
-    <col min="1026" max="16384" width="9" style="17"/>
+    <col min="1026" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -1937,22 +1915,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1969,16 +1947,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -1990,40 +1968,40 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="19"/>
+        <v>111</v>
+      </c>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -2031,16 +2009,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>116</v>
+      <c r="D5" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -2086,19 +2064,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2115,102 +2093,102 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="6:8">
@@ -2274,13 +2252,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2297,16 +2275,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2334,9 +2312,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="5" width="8.78333333333333" style="11"/>
+    <col min="1" max="5" width="8.78333333333333" style="8"/>
     <col min="6" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="12"/>
+    <col min="1026" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -2347,13 +2325,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2369,23 +2347,23 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>138</v>
+      <c r="D2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2410,127 +2388,126 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="3" width="8.78333333333333" style="11"/>
-    <col min="4" max="6" width="9.875" style="11"/>
-    <col min="7" max="7" width="8.78333333333333" style="11"/>
+    <col min="1" max="3" width="8.78333333333333" style="8"/>
+    <col min="4" max="6" width="9.875" style="8"/>
+    <col min="7" max="7" width="8.78333333333333" style="8"/>
     <col min="8" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="12"/>
+    <col min="1026" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="C1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>136</v>
+      <c r="A2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="14">
+        <v>84</v>
+      </c>
+      <c r="E2" s="11">
         <v>-3</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>143</v>
+      <c r="F2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>136</v>
+      <c r="A3" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="14">
+        <v>85</v>
+      </c>
+      <c r="E3" s="11">
         <v>-4</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>107</v>
+      <c r="F3" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>136</v>
+      <c r="A4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="14">
+        <v>86</v>
+      </c>
+      <c r="E4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>107</v>
+      <c r="F4" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="A5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="11">
         <v>2</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>107</v>
+      <c r="F5" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2543,7 +2520,7 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2560,12 +2537,11 @@
     <col min="4" max="4" width="9.25" style="2"/>
     <col min="5" max="5" width="8.78333333333333" style="2"/>
     <col min="6" max="6" width="14.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.78333333333333" style="2"/>
-    <col min="8" max="1025" width="8.78333333333333" style="8"/>
-    <col min="1026" max="16384" width="9" style="9"/>
+    <col min="7" max="1025" width="8.78333333333333" style="2"/>
+    <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:1024">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2576,13 +2552,13 @@
         <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2596,115 +2572,113 @@
       <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMJ1" s="8"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="A3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="7">
         <v>0.001</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="10">
+        <v>163</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="7">
         <v>2000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>157</v>
+        <v>164</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>157</v>
+        <v>166</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3">
+  <autoFilter ref="A1:E8">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2728,8 +2702,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="7"/>
-    <col min="1026" max="16384" width="9" style="7"/>
+    <col min="1" max="1025" width="8.78333333333333" style="2"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
@@ -2740,10 +2714,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2783,50 +2757,50 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2864,46 +2838,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2936,11 +2910,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="12"/>
+    <col min="1026" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2948,7 +2922,7 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2956,7 +2930,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2964,12 +2938,12 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2977,7 +2951,7 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3004,9 +2978,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1020" width="8.78333333333333" style="2"/>
-    <col min="1021" max="1023" width="8.78333333333333" style="20"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="17"/>
-    <col min="1026" max="16384" width="9" style="17"/>
+    <col min="1021" max="1023" width="8.78333333333333" style="3"/>
+    <col min="1024" max="1025" width="8.78333333333333" style="14"/>
+    <col min="1026" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
@@ -3031,9 +3005,9 @@
       <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMH1" s="20"/>
-      <c r="AMI1" s="20"/>
-      <c r="AMJ1" s="17"/>
+      <c r="AMH1" s="3"/>
+      <c r="AMI1" s="3"/>
+      <c r="AMJ1" s="14"/>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -3070,24 +3044,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:G3"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="17"/>
+    <col min="1" max="1028" width="8.78333333333333" style="2"/>
+    <col min="1029" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A1" s="24" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3109,62 +3083,89 @@
         <v>41</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="25">
-        <v>1.09</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4.58e-17</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4.58e-18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="25">
-        <v>0.99318</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>47</v>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3182,7 +3183,7 @@
   <sheetPr/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3196,8 +3197,8 @@
     <col min="2" max="3" width="8.78333333333333" style="2"/>
     <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
     <col min="5" max="1022" width="8.78333333333333" style="2"/>
-    <col min="1023" max="1024" width="8.78333333333333" style="22"/>
-    <col min="1025" max="16384" width="9" style="22"/>
+    <col min="1023" max="1024" width="8.78333333333333" style="18"/>
+    <col min="1025" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
@@ -3208,16 +3209,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>37</v>
@@ -3237,14 +3238,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="22"/>
+        <v>60</v>
+      </c>
+      <c r="C2" s="18"/>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3252,21 +3253,21 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="21"/>
+      <c r="G2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="C3" s="18"/>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3274,21 +3275,21 @@
       <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="21"/>
+      <c r="G3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="22"/>
+        <v>67</v>
+      </c>
+      <c r="C4" s="18"/>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
@@ -3296,74 +3297,73 @@
       <c r="F4" s="2">
         <v>4</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="21"/>
+      <c r="G4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="22"/>
+      <c r="A5" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="18"/>
       <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="22">
+        <v>71</v>
+      </c>
+      <c r="E5" s="18">
         <v>10</v>
       </c>
       <c r="F5" s="2">
         <v>10</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="21"/>
+      <c r="G5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="22"/>
+      <c r="A6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="18"/>
       <c r="D6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="22">
+        <v>74</v>
+      </c>
+      <c r="E6" s="18">
         <v>2</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="21"/>
+      <c r="G6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="A7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>76</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="23">
+        <v>77</v>
+      </c>
+      <c r="E7" s="18">
         <v>3</v>
       </c>
       <c r="F7" s="2">
         <v>6</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>57</v>
+      <c r="G7" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3391,9 +3391,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="16.3916666666667" style="7"/>
-    <col min="7" max="1025" width="9.10833333333333" style="7"/>
-    <col min="1026" max="16384" width="9" style="7"/>
+    <col min="1" max="6" width="16.3916666666667" style="2"/>
+    <col min="7" max="1025" width="9.10833333333333" style="2"/>
+    <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -3404,13 +3404,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3426,115 +3426,115 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>77</v>
+      <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>77</v>
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>77</v>
+      <c r="A4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>77</v>
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>77</v>
+      <c r="A6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>77</v>
+      <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>77</v>
+      <c r="A9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3567,7 +3567,7 @@
     <col min="4" max="4" width="10.6" style="2"/>
     <col min="5" max="5" width="9.75" style="2"/>
     <col min="6" max="7" width="8.78333333333333" style="2"/>
-    <col min="8" max="1025" width="8.78333333333333" style="20"/>
+    <col min="8" max="1025" width="8.78333333333333" style="3"/>
     <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -3579,19 +3579,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3607,105 +3607,105 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.000148</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.0002</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.0005</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.0005</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.001</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="21">
-        <v>0.000148</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="21">
-        <v>0.0002</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="21">
-        <v>0.0005</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0.0005</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="20" t="s">
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.002</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="21">
-        <v>0.001</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="21">
-        <v>0.002</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3730,30 +3730,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="8"/>
-    <col min="1026" max="16384" width="9" style="9"/>
+    <col min="1" max="1025" width="8.78333333333333" style="2"/>
+    <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -3785,8 +3785,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="8"/>
-    <col min="1026" max="16384" width="9" style="9"/>
+    <col min="1" max="1025" width="8.78333333333333" style="2"/>
+    <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
@@ -3797,10 +3797,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>

--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="989" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,29 +28,29 @@
     <sheet name="References" sheetId="17" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$E$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="190">
   <si>
     <t>Id</t>
   </si>
@@ -238,70 +238,91 @@
     <t>ssa</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>specie_1</t>
@@ -681,12 +702,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -715,41 +736,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -758,12 +744,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -774,14 +757,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -798,7 +781,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,6 +824,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -828,14 +848,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -849,15 +869,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,13 +899,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +929,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,67 +989,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +1013,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,61 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,6 +1111,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1105,22 +1135,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1155,17 +1180,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,136 +1202,136 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1915,22 +1936,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1947,16 +1968,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -1968,22 +1989,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1992,16 +2013,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -2009,16 +2030,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -2064,19 +2085,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2093,102 +2114,102 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="6:8">
@@ -2252,13 +2273,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2275,16 +2296,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2325,13 +2346,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2348,22 +2369,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2403,16 +2424,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>18</v>
@@ -2429,85 +2450,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E2" s="11">
         <v>-3</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E3" s="11">
         <v>-4</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2549,16 +2570,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2575,106 +2596,106 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D3" s="7">
         <v>0.001</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D5" s="7">
         <v>2000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2714,10 +2735,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2768,28 +2789,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2838,46 +2859,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3044,30 +3065,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1028" width="8.78333333333333" style="2"/>
-    <col min="1029" max="16384" width="9" style="14"/>
+    <col min="1" max="1031" width="8.78333333333333" style="2"/>
+    <col min="1032" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:17">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -3092,84 +3113,108 @@
         <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
+    <row r="2" customHeight="1" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="7">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="7">
         <v>4.58e-17</v>
       </c>
-      <c r="G2" s="2">
+      <c r="J2" s="2">
         <v>4.58e-18</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="H3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>52</v>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3">
+  <autoFilter ref="A1:H3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3209,19 +3254,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3238,14 +3283,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3254,20 +3299,20 @@
         <v>1</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3276,20 +3321,20 @@
         <v>2</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
@@ -3298,20 +3343,20 @@
         <v>4</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="18" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E5" s="18">
         <v>10</v>
@@ -3320,20 +3365,20 @@
         <v>10</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E6" s="18">
         <v>2</v>
@@ -3342,19 +3387,19 @@
         <v>2</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E7" s="18">
         <v>3</v>
@@ -3363,7 +3408,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3404,13 +3449,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3427,114 +3472,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3579,19 +3624,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3608,104 +3653,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E2" s="17">
         <v>0.000148</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E3" s="17">
         <v>0.0002</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E4" s="17">
         <v>0.0005</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E5" s="17">
         <v>0.0005</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E6" s="17">
         <v>0.001</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E7" s="17">
         <v>0.002</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3742,10 +3787,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3797,10 +3842,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>

--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="989" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="989" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="192">
   <si>
     <t>Id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>reaction_1</t>
@@ -557,6 +557,12 @@
   </si>
   <si>
     <t>k_cat_4_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>dfba-obj-submodel_1</t>
@@ -702,12 +708,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -744,11 +750,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -758,6 +759,35 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,6 +809,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -795,38 +839,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,8 +867,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,30 +883,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,37 +905,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,13 +935,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,7 +965,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,7 +1025,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,67 +1061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,25 +1079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,6 +1110,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1116,6 +1133,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,21 +1168,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1161,6 +1178,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,158 +1205,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1382,10 +1388,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1914,7 +1920,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D2:D5"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -2247,25 +2253,26 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="22.925" style="2"/>
     <col min="2" max="3" width="9.10833333333333" style="2"/>
-    <col min="4" max="4" width="41.2416666666667" style="2"/>
-    <col min="5" max="1025" width="9.10833333333333" style="2"/>
+    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.25" style="2" customWidth="1"/>
+    <col min="7" max="1027" width="9.10833333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2282,21 +2289,27 @@
         <v>87</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -2305,7 +2318,13 @@
         <v>115</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2352,7 +2371,7 @@
         <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2369,10 +2388,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>30</v>
@@ -2384,7 +2403,7 @@
         <v>56</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2424,13 +2443,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>87</v>
@@ -2450,13 +2469,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>91</v>
@@ -2468,18 +2487,18 @@
         <v>118</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>92</v>
@@ -2493,13 +2512,13 @@
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>93</v>
@@ -2513,13 +2532,13 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>94</v>
@@ -2573,10 +2592,10 @@
         <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>87</v>
@@ -2596,10 +2615,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>132</v>
@@ -2608,18 +2627,18 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D3" s="7">
         <v>0.001</v>
@@ -2630,38 +2649,38 @@
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D5" s="7">
         <v>2000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -2672,30 +2691,30 @@
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2789,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>87</v>
@@ -2798,19 +2817,19 @@
         <v>65</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2859,46 +2878,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3067,7 +3086,7 @@
   <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="989" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="989" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="199">
   <si>
     <t>Id</t>
   </si>
@@ -250,442 +250,463 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>specie_1</t>
+  </si>
+  <si>
+    <t>specie_name_1</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>specie_2</t>
+  </si>
+  <si>
+    <t>specie_name_2</t>
+  </si>
+  <si>
+    <t>NONa2</t>
+  </si>
+  <si>
+    <t>specie_3</t>
+  </si>
+  <si>
+    <t>specie_name_3</t>
+  </si>
+  <si>
+    <t>N2O2Na4</t>
+  </si>
+  <si>
+    <t>specie_4</t>
+  </si>
+  <si>
+    <t>specie_name_4</t>
+  </si>
+  <si>
+    <t>N5O5Na10</t>
+  </si>
+  <si>
+    <t>specie_5</t>
+  </si>
+  <si>
+    <t>specie_name_5</t>
+  </si>
+  <si>
+    <t>NONa</t>
+  </si>
+  <si>
+    <t>specie_6</t>
+  </si>
+  <si>
+    <t>specie_name_6</t>
+  </si>
+  <si>
+    <t>N3O3Na8</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>specie_1[e]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>specie_2[e]</t>
+  </si>
+  <si>
+    <t>specie_1[c]</t>
+  </si>
+  <si>
+    <t>specie_2[c]</t>
+  </si>
+  <si>
+    <t>specie_3[c]</t>
+  </si>
+  <si>
+    <t>specie_4[c]</t>
+  </si>
+  <si>
+    <t>specie_5[c]</t>
+  </si>
+  <si>
+    <t>specie_6[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_1[e]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_4[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_5[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_6[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_e</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_name_1</t>
+  </si>
+  <si>
+    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t>M s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_name_2</t>
+  </si>
+  <si>
+    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>reaction_name_3</t>
+  </si>
+  <si>
+    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t>reaction_4</t>
+  </si>
+  <si>
+    <t>reaction_name_4</t>
+  </si>
+  <si>
+    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_2_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_3_for * specie_4[c] / (K_m_3 * Avogadro * volume_c + specie_4[c])</t>
+  </si>
+  <si>
+    <t>reaction_3-backward</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
+  </si>
+  <si>
+    <t>reaction_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_4_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>dfba-obj-submodel_1</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>Metabolism_biomass</t>
+  </si>
+  <si>
+    <t>Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_1[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_2[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_2</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_3[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_3</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_4[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_4</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>Fraction of cell mass which is non water</t>
+  </si>
+  <si>
+    <t>[Ref-0006]</t>
+  </si>
+  <si>
+    <t>K_m_3</t>
+  </si>
+  <si>
+    <t>K_m</t>
+  </si>
+  <si>
+    <t>k_cat_1_for</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_2_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev</t>
+  </si>
+  <si>
+    <t>k_cat_4_for</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>specie_1</t>
-  </si>
-  <si>
-    <t>specie_name_1</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>specie_2</t>
-  </si>
-  <si>
-    <t>specie_name_2</t>
-  </si>
-  <si>
-    <t>NONa2</t>
-  </si>
-  <si>
-    <t>specie_3</t>
-  </si>
-  <si>
-    <t>specie_name_3</t>
-  </si>
-  <si>
-    <t>N2O2Na4</t>
-  </si>
-  <si>
-    <t>specie_4</t>
-  </si>
-  <si>
-    <t>specie_name_4</t>
-  </si>
-  <si>
-    <t>N5O5Na10</t>
-  </si>
-  <si>
-    <t>specie_5</t>
-  </si>
-  <si>
-    <t>specie_name_5</t>
-  </si>
-  <si>
-    <t>NONa</t>
-  </si>
-  <si>
-    <t>specie_6</t>
-  </si>
-  <si>
-    <t>specie_name_6</t>
-  </si>
-  <si>
-    <t>N3O3Na8</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>specie_1[e]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>specie_2[e]</t>
-  </si>
-  <si>
-    <t>specie_1[c]</t>
-  </si>
-  <si>
-    <t>specie_2[c]</t>
-  </si>
-  <si>
-    <t>specie_3[c]</t>
-  </si>
-  <si>
-    <t>specie_4[c]</t>
-  </si>
-  <si>
-    <t>specie_5[c]</t>
-  </si>
-  <si>
-    <t>specie_6[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_1[e]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_4[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_5[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_6[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>reaction_1</t>
-  </si>
-  <si>
-    <t>reaction_name_1</t>
-  </si>
-  <si>
-    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t>M s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2</t>
-  </si>
-  <si>
-    <t>reaction_name_2</t>
-  </si>
-  <si>
-    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t>reaction_3</t>
-  </si>
-  <si>
-    <t>reaction_name_3</t>
-  </si>
-  <si>
-    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t>reaction_4</t>
-  </si>
-  <si>
-    <t>reaction_name_4</t>
-  </si>
-  <si>
-    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_2_for * specie_2[c]</t>
-  </si>
-  <si>
-    <t>reaction_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_3_for * specie_4[c] / (K_m_3 + specie_4[c])</t>
-  </si>
-  <si>
-    <t>reaction_3-backward</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
-  </si>
-  <si>
-    <t>reaction_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_4_for * specie_2[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>dfba-obj-submodel_1</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>Metabolism_biomass</t>
-  </si>
-  <si>
-    <t>Metabolism biomass reaction</t>
-  </si>
-  <si>
-    <t>No comment</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_1[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_2[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_2</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_3[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_3</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_4[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_4</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>Fraction of cell mass which is non water</t>
-  </si>
-  <si>
-    <t>[Ref-0006]</t>
-  </si>
-  <si>
-    <t>K_m_3</t>
-  </si>
-  <si>
-    <t>K_m</t>
-  </si>
-  <si>
-    <t>k_cat_1_for</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_2_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev</t>
-  </si>
-  <si>
-    <t>k_cat_4_for</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -708,12 +729,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -742,9 +763,52 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,15 +822,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -777,8 +874,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -793,29 +897,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -823,68 +904,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,7 +926,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,13 +986,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,73 +1088,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,79 +1106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,13 +1129,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,11 +1153,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,17 +1183,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,160 +1209,156 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1942,22 +1963,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1974,16 +1995,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -1995,22 +2016,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -2019,16 +2040,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -2036,16 +2057,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -2071,7 +2092,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8:H12"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2079,7 +2100,7 @@
     <col min="1" max="1" width="17.75" style="2" customWidth="1"/>
     <col min="2" max="4" width="8.78333333333333" style="2"/>
     <col min="5" max="5" width="4.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.375" style="2" customWidth="1"/>
     <col min="7" max="1025" width="8.78333333333333" style="2"/>
   </cols>
   <sheetData>
@@ -2091,19 +2112,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2120,102 +2141,102 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="6:8">
@@ -2255,7 +2276,7 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2280,19 +2301,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2309,19 +2330,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2365,13 +2386,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2388,22 +2409,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2443,16 +2464,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>18</v>
@@ -2469,85 +2490,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="11">
         <v>-3</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="11">
         <v>-4</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2560,17 +2581,17 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.78333333333333" style="2"/>
@@ -2589,16 +2610,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2615,106 +2636,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D3" s="7">
         <v>0.001</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D5" s="7">
         <v>2000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2754,10 +2817,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2808,28 +2871,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2878,46 +2941,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3084,23 +3147,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1031" width="8.78333333333333" style="2"/>
-    <col min="1032" max="16384" width="9" style="14"/>
+    <col min="1" max="1030" width="8.78333333333333" style="2"/>
+    <col min="1031" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -3138,45 +3201,42 @@
         <v>46</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:12">
+      <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I2" s="7">
         <v>4.58e-17</v>
@@ -3185,36 +3245,33 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="2" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3223,13 +3280,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3273,19 +3327,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3302,14 +3356,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3318,20 +3372,20 @@
         <v>1</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3340,20 +3394,20 @@
         <v>2</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
@@ -3362,20 +3416,20 @@
         <v>4</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="18">
         <v>10</v>
@@ -3384,20 +3438,20 @@
         <v>10</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>80</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="18">
         <v>2</v>
@@ -3406,19 +3460,19 @@
         <v>2</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="D7" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E7" s="18">
         <v>3</v>
@@ -3427,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3468,13 +3522,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3491,114 +3545,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3643,19 +3697,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3672,104 +3726,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="17">
         <v>0.000148</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="17">
         <v>0.0002</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="17">
         <v>0.0005</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="17">
         <v>0.0005</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="17">
         <v>0.001</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="17">
         <v>0.002</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3806,10 +3860,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3837,19 +3891,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:H1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
+    <col min="1" max="2" width="8.78333333333333" style="2"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="1025" width="8.78333333333333" style="2"/>
     <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -3861,10 +3917,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -3877,6 +3933,28 @@
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="989" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="989" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$E$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="200">
   <si>
     <t>Id</t>
   </si>
@@ -472,6 +472,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -490,6 +493,9 @@
     <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>M s^-1</t>
   </si>
   <si>
@@ -536,9 +542,6 @@
   </si>
   <si>
     <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>reaction_2-forward</t>
@@ -731,10 +734,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -768,9 +771,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,25 +780,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -814,15 +800,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,24 +833,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -881,6 +870,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -889,23 +907,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,7 +929,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +947,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,19 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,109 +1091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,25 +1109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,30 +1129,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1183,11 +1162,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1226,139 +1220,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1934,14 +1937,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -1950,12 +1953,12 @@
     <col min="2" max="2" width="13.3416666666667" style="2"/>
     <col min="3" max="3" width="10.025" style="2"/>
     <col min="4" max="4" width="42" style="2"/>
-    <col min="5" max="9" width="8.78333333333333" style="2"/>
-    <col min="10" max="1025" width="8.78333333333333" style="1"/>
-    <col min="1026" max="16384" width="9" style="14"/>
+    <col min="5" max="10" width="8.78333333333333" style="2"/>
+    <col min="11" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1981,95 +1984,110 @@
         <v>117</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
+      <c r="I2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2112,10 +2130,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>64</v>
@@ -2141,102 +2159,102 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="6:8">
@@ -2310,10 +2328,10 @@
         <v>86</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2330,19 +2348,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2392,7 +2410,7 @@
         <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2409,22 +2427,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2464,13 +2482,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>86</v>
@@ -2490,13 +2508,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>90</v>
@@ -2505,21 +2523,21 @@
         <v>-3</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>91</v>
@@ -2528,18 +2546,18 @@
         <v>-4</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>92</v>
@@ -2548,18 +2566,18 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>93</v>
@@ -2568,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2583,7 +2601,7 @@
   <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2613,10 +2631,10 @@
         <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>86</v>
@@ -2636,30 +2654,30 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D3" s="7">
         <v>0.001</v>
@@ -2670,72 +2688,72 @@
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D5" s="7">
         <v>2000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -2743,13 +2761,13 @@
         <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -2757,31 +2775,31 @@
         <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D11" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E8">
+  <autoFilter ref="A1:E11">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2871,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>86</v>
@@ -2880,19 +2898,19 @@
         <v>64</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2941,46 +2959,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>

--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -5,127 +5,128 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="989" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="11" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="12" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="10" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="13" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="14" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="15" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="16" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="18" r:id="rId17"/>
-    <sheet name="References" sheetId="17" r:id="rId18"/>
+    <sheet name="Environment" sheetId="19" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="11" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="12" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="10" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="13" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="14" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="15" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="16" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="18" r:id="rId18"/>
+    <sheet name="References" sheetId="17" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$E$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$H$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="204">
   <si>
     <t>Id</t>
   </si>
@@ -193,7 +194,7 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>ASP_test</t>
+    <t>taxon</t>
   </si>
   <si>
     <t>Test model for TestExecutableModel</t>
@@ -211,6 +212,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -683,9 +699,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -733,10 +746,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -766,15 +779,31 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -787,24 +816,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,34 +838,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -864,7 +869,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,29 +921,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,13 +942,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,7 +978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,7 +990,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,7 +1038,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,67 +1086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,55 +1098,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,6 +1145,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1143,6 +1174,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,50 +1237,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1232,140 +1245,140 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1423,6 +1436,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1937,9 +1953,88 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="8.78333333333333" style="2"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="1025" width="8.78333333333333" style="2"/>
+    <col min="1026" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1966,31 +2061,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -2001,22 +2096,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2025,69 +2120,69 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J3" s="16"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K12"/>
@@ -2130,25 +2225,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2159,102 +2254,102 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="6:8">
@@ -2289,7 +2384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K2"/>
@@ -2319,25 +2414,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2348,19 +2443,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2376,7 +2471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I2"/>
@@ -2404,19 +2499,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2427,22 +2522,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2452,7 +2547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J5"/>
@@ -2482,22 +2577,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>19</v>
@@ -2508,85 +2603,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>153</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E2" s="11">
         <v>-3</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E3" s="11">
         <v>-4</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +2691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J11"/>
@@ -2628,22 +2723,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2654,148 +2749,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D3" s="7">
         <v>0.001</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D5" s="7">
         <v>2000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D11" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2808,7 +2903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2835,16 +2930,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2863,7 +2958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -2889,34 +2984,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>19</v>
@@ -2931,7 +3026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R1"/>
@@ -2959,46 +3054,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3025,7 +3120,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C13" sqref="$A1:$XFD1048576"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -3084,6 +3179,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
+    <col min="3" max="1018" width="8.78333333333333" style="2"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="20"/>
+    <col min="1020" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ3"/>
@@ -3112,13 +3285,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3132,27 +3305,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3162,7 +3335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P3"/>
@@ -3189,40 +3362,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3233,28 +3406,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I2" s="7">
         <v>4.58e-17</v>
@@ -3263,33 +3436,33 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3298,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3314,7 +3487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K7"/>
@@ -3345,25 +3518,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3374,14 +3547,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3390,20 +3563,20 @@
         <v>1</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3412,20 +3585,20 @@
         <v>2</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
@@ -3434,20 +3607,20 @@
         <v>4</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E5" s="18">
         <v>10</v>
@@ -3456,20 +3629,20 @@
         <v>10</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="18" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E6" s="18">
         <v>2</v>
@@ -3478,19 +3651,19 @@
         <v>2</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E7" s="18">
         <v>3</v>
@@ -3499,7 +3672,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3512,7 +3685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I9"/>
@@ -3540,19 +3713,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3563,114 +3736,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3683,7 +3856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K7"/>
@@ -3715,25 +3888,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3744,104 +3917,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E2" s="17">
         <v>0.000148</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E3" s="17">
         <v>0.0002</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E4" s="17">
         <v>0.0005</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E5" s="17">
         <v>0.0005</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E6" s="17">
         <v>0.001</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E7" s="17">
         <v>0.002</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3851,7 +4024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -3878,101 +4051,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="2" width="8.78333333333333" style="2"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="989" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="989" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="11" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="12" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="10" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="13" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="14" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="13" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="14" r:id="rId15"/>
     <sheet name="Parameters" sheetId="15" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="16" r:id="rId17"/>
     <sheet name="Evidence" sheetId="18" r:id="rId18"/>
@@ -611,7 +611,7 @@
     <t>No comment</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -746,11 +746,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -787,6 +787,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -794,6 +809,58 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,37 +883,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,7 +891,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,52 +912,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -942,7 +942,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,37 +1038,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,19 +1086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,61 +1098,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,43 +1110,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,20 +1145,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,17 +1205,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,177 +1242,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2552,12 +2552,12 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -3183,7 +3183,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="D6" sqref="D6"/>

--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="989" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="205">
   <si>
     <t>Id</t>
   </si>
@@ -227,6 +227,12 @@
     <t>pH</t>
   </si>
   <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -594,9 +600,6 @@
   </si>
   <si>
     <t>dfba-obj-submodel_1</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -747,10 +750,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -779,9 +782,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,11 +803,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -807,23 +824,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,13 +855,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -852,10 +863,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -866,11 +885,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -890,10 +908,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -906,22 +924,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,19 +945,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,67 +1047,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,49 +1077,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,31 +1101,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,47 +1148,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,25 +1176,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,139 +1206,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1979,16 +1982,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -1999,24 +2002,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2061,31 +2064,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -2096,22 +2099,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2120,69 +2123,69 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J3" s="16"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2225,25 +2228,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2254,102 +2257,102 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="6:8">
@@ -2414,25 +2417,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2443,19 +2446,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2499,19 +2502,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2522,22 +2525,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2552,7 +2555,7 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2577,22 +2580,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>19</v>
@@ -2603,85 +2606,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" s="11">
         <v>-3</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="11">
         <v>-4</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E5" s="11">
         <v>2</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2723,22 +2726,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2749,148 +2752,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D3" s="7">
         <v>0.001</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D5" s="7">
         <v>2000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D11" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2930,16 +2933,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2984,34 +2987,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>19</v>
@@ -3054,46 +3057,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3181,15 +3184,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
@@ -3235,18 +3238,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3285,13 +3296,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3305,27 +3316,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3362,40 +3373,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3406,28 +3417,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" s="7">
         <v>4.58e-17</v>
@@ -3436,33 +3447,33 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3471,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3518,25 +3529,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3547,14 +3558,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3563,20 +3574,20 @@
         <v>1</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3585,20 +3596,20 @@
         <v>2</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
@@ -3607,20 +3618,20 @@
         <v>4</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="18">
         <v>10</v>
@@ -3629,20 +3640,20 @@
         <v>10</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E6" s="18">
         <v>2</v>
@@ -3651,19 +3662,19 @@
         <v>2</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E7" s="18">
         <v>3</v>
@@ -3672,7 +3683,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3713,19 +3724,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3736,114 +3747,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3888,25 +3899,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3917,104 +3928,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="17">
         <v>0.000148</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="17">
         <v>0.0002</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="17">
         <v>0.0005</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="17">
         <v>0.0005</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="17">
         <v>0.001</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" s="17">
         <v>0.002</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4051,16 +4062,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>19</v>

--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="989" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="989" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,15 @@
     <sheet name="Parameters" sheetId="15" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="16" r:id="rId17"/>
     <sheet name="Evidence" sheetId="18" r:id="rId18"/>
-    <sheet name="References" sheetId="17" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="20" r:id="rId19"/>
+    <sheet name="References" sheetId="17" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$E$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$H$3</definedName>
@@ -103,30 +104,30 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="211">
   <si>
     <t>Id</t>
   </si>
@@ -239,6 +240,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>submodel_1</t>
   </si>
   <si>
@@ -701,10 +705,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -748,12 +767,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -782,33 +801,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -819,9 +822,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -829,6 +850,21 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -847,17 +883,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,59 +943,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -945,25 +964,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,7 +1000,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,61 +1030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,7 +1048,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,55 +1144,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,30 +1177,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1198,11 +1193,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,15 +1230,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1245,143 +1244,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1396,6 +1415,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1956,25 +1978,25 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:D3"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="2" width="8.78333333333333" style="2"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="6"/>
+    <col min="4" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1982,10 +2004,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -1994,32 +2016,35 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2035,14 +2060,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -2052,11 +2077,11 @@
     <col min="3" max="3" width="10.025" style="2"/>
     <col min="4" max="4" width="42" style="2"/>
     <col min="5" max="10" width="8.78333333333333" style="2"/>
-    <col min="11" max="1026" width="8.78333333333333" style="1"/>
-    <col min="1027" max="16384" width="9" style="14"/>
+    <col min="11" max="1027" width="8.78333333333333" style="1"/>
+    <col min="1028" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2064,25 +2089,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
@@ -2091,30 +2116,33 @@
         <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2123,69 +2151,69 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J2" s="16"/>
+        <v>131</v>
+      </c>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J3" s="16"/>
+        <v>130</v>
+      </c>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>139</v>
+        <v>42</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2201,14 +2229,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2217,10 +2245,10 @@
     <col min="2" max="4" width="8.78333333333333" style="2"/>
     <col min="5" max="5" width="4.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="41.375" style="2" customWidth="1"/>
-    <col min="7" max="1025" width="8.78333333333333" style="2"/>
+    <col min="7" max="1026" width="8.78333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2228,19 +2256,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2249,110 +2277,113 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="6:8">
@@ -2390,14 +2421,14 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2406,10 +2437,10 @@
     <col min="2" max="3" width="9.10833333333333" style="2"/>
     <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
     <col min="5" max="6" width="12.25" style="2" customWidth="1"/>
-    <col min="7" max="1027" width="9.10833333333333" style="2"/>
+    <col min="7" max="1028" width="9.10833333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2417,19 +2448,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2438,27 +2469,30 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2477,24 +2511,24 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="5" width="8.78333333333333" style="8"/>
-    <col min="6" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="9"/>
+    <col min="1" max="5" width="8.78333333333333" style="9"/>
+    <col min="6" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2502,13 +2536,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2517,30 +2551,33 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>161</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2553,138 +2590,141 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="3" width="8.78333333333333" style="8"/>
-    <col min="4" max="6" width="9.875" style="8"/>
-    <col min="7" max="7" width="8.78333333333333" style="8"/>
-    <col min="8" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="9"/>
+    <col min="1" max="3" width="8.78333333333333" style="9"/>
+    <col min="4" max="6" width="9.875" style="9"/>
+    <col min="7" max="7" width="8.78333333333333" style="9"/>
+    <col min="8" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>159</v>
+      <c r="B2" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="11">
+        <v>98</v>
+      </c>
+      <c r="E2" s="12">
         <v>-3</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>166</v>
+      <c r="F2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>159</v>
+      <c r="B3" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="11">
+        <v>99</v>
+      </c>
+      <c r="E3" s="12">
         <v>-4</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>130</v>
+      <c r="F3" s="13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>159</v>
+      <c r="B4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="11">
+        <v>100</v>
+      </c>
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>130</v>
+      <c r="F4" s="13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="B5" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="12">
         <v>2</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>130</v>
+      <c r="F5" s="13" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2697,14 +2737,14 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2714,11 +2754,11 @@
     <col min="4" max="4" width="9.25" style="2"/>
     <col min="5" max="5" width="8.78333333333333" style="2"/>
     <col min="6" max="6" width="14.375" style="2" customWidth="1"/>
-    <col min="7" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="6"/>
+    <col min="7" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2726,16 +2766,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2744,21 +2784,24 @@
         <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
@@ -2766,134 +2809,134 @@
       <c r="F2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>176</v>
+      <c r="J2" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="7">
+        <v>179</v>
+      </c>
+      <c r="D3" s="8">
         <v>0.001</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="7">
+        <v>145</v>
+      </c>
+      <c r="D11" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2909,23 +2952,23 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:H1"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2933,10 +2976,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2945,9 +2988,12 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2964,14 +3010,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2979,7 +3025,7 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2987,16 +3033,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>190</v>
@@ -3005,21 +3051,45 @@
         <v>191</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3030,6 +3100,170 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="2"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1025" width="8.78333333333333" style="2"/>
+    <col min="1026" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R1"/>
@@ -3057,46 +3291,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3109,72 +3343,6 @@
   <autoFilter ref="A1:D1">
     <extLst/>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -3186,10 +3354,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -3197,8 +3365,8 @@
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="2"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="20"/>
-    <col min="1020" max="16384" width="9" style="20"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="21"/>
+    <col min="1020" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3270,7 +3438,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3282,13 +3450,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1020" width="8.78333333333333" style="2"/>
-    <col min="1021" max="1023" width="8.78333333333333" style="3"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="14"/>
-    <col min="1026" max="16384" width="9" style="14"/>
+    <col min="1" max="1021" width="8.78333333333333" style="2"/>
+    <col min="1022" max="1024" width="8.78333333333333" style="3"/>
+    <col min="1025" max="1026" width="8.78333333333333" style="15"/>
+    <col min="1027" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3305,38 +3473,41 @@
         <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMH1" s="3"/>
       <c r="AMI1" s="3"/>
-      <c r="AMJ1" s="14"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:6">
+      <c r="AMJ1" s="3"/>
+      <c r="AMK1" s="15"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3349,58 +3520,58 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2:L3"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1030" width="8.78333333333333" style="2"/>
-    <col min="1031" max="16384" width="9" style="14"/>
+    <col min="1" max="1031" width="8.78333333333333" style="2"/>
+    <col min="1032" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
@@ -3409,71 +3580,74 @@
         <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="7">
+        <v>62</v>
+      </c>
+      <c r="I2" s="8">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="2">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3482,10 +3656,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3501,14 +3675,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -3516,12 +3690,12 @@
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.78333333333333" style="2"/>
     <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
-    <col min="5" max="1022" width="8.78333333333333" style="2"/>
-    <col min="1023" max="1024" width="8.78333333333333" style="18"/>
-    <col min="1025" max="16384" width="9" style="18"/>
+    <col min="5" max="1023" width="8.78333333333333" style="2"/>
+    <col min="1024" max="1025" width="8.78333333333333" style="19"/>
+    <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3529,19 +3703,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3550,22 +3724,25 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="18"/>
+        <v>74</v>
+      </c>
+      <c r="C2" s="19"/>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3573,21 +3750,21 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="17"/>
+      <c r="G2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="18"/>
+        <v>78</v>
+      </c>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3595,21 +3772,21 @@
       <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="17"/>
+      <c r="G3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="18"/>
+        <v>81</v>
+      </c>
+      <c r="C4" s="19"/>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
@@ -3617,73 +3794,73 @@
       <c r="F4" s="2">
         <v>4</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="17"/>
+      <c r="G4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="19"/>
       <c r="D5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="18">
+        <v>85</v>
+      </c>
+      <c r="E5" s="19">
         <v>10</v>
       </c>
       <c r="F5" s="2">
         <v>10</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="17"/>
+      <c r="G5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="B6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="19"/>
       <c r="D6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="18">
+        <v>88</v>
+      </c>
+      <c r="E6" s="19">
         <v>2</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="17"/>
+      <c r="G6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>89</v>
       </c>
+      <c r="B7" s="19" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="18">
+        <v>91</v>
+      </c>
+      <c r="E7" s="19">
         <v>3</v>
       </c>
       <c r="F7" s="2">
         <v>6</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>75</v>
+      <c r="G7" s="18" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3699,24 +3876,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="16.3916666666667" style="2"/>
-    <col min="7" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="7" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3724,13 +3901,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3739,122 +3916,125 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3870,14 +4050,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -3887,11 +4067,11 @@
     <col min="4" max="4" width="10.6" style="2"/>
     <col min="5" max="5" width="9.75" style="2"/>
     <col min="6" max="7" width="8.78333333333333" style="2"/>
-    <col min="8" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="8" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3899,19 +4079,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3920,112 +4100,115 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="17">
+        <v>62</v>
+      </c>
+      <c r="E2" s="18">
         <v>0.000148</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>108</v>
+      <c r="G2" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.0002</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0.0002</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="17">
+        <v>62</v>
+      </c>
+      <c r="E4" s="18">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>108</v>
+      <c r="G4" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="17">
+        <v>62</v>
+      </c>
+      <c r="E5" s="18">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>108</v>
+      <c r="G5" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="17">
+        <v>62</v>
+      </c>
+      <c r="E6" s="18">
         <v>0.001</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>108</v>
+      <c r="G6" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="17">
+        <v>62</v>
+      </c>
+      <c r="E7" s="18">
         <v>0.002</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>108</v>
+      <c r="G7" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4038,23 +4221,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:H1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="6"/>
+    <col min="1" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4062,10 +4245,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -4073,10 +4256,13 @@
       <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="989" firstSheet="11" activeTab="16"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="989" firstSheet="6" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="210">
   <si>
     <t>Id</t>
   </si>
@@ -234,7 +234,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -249,7 +249,7 @@
     <t>Metabolism</t>
   </si>
   <si>
-    <t>dfba</t>
+    <t>dynamic_flux_balance_analysis</t>
   </si>
   <si>
     <t>For testing</t>
@@ -261,7 +261,7 @@
     <t>RNA degradation</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>Biological type</t>
@@ -300,13 +300,13 @@
     <t>Cell</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -315,7 +315,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -327,7 +327,7 @@
     <t>Extracellular space</t>
   </si>
   <si>
-    <t>extracellular</t>
+    <t>extracellular_compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -562,9 +562,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
@@ -767,12 +764,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -814,17 +811,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,9 +827,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -850,6 +853,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -884,53 +894,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -944,6 +917,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -964,7 +961,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,7 +1069,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,31 +1093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,49 +1105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,49 +1123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,19 +1135,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,21 +1173,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1215,6 +1197,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1226,6 +1217,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,155 +1261,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1400,7 +1397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1450,10 +1447,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2236,7 +2236,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2296,11 +2296,9 @@
       <c r="D2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>130</v>
@@ -2308,7 +2306,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>132</v>
@@ -2316,11 +2314,9 @@
       <c r="D3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>130</v>
@@ -2328,7 +2324,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>135</v>
@@ -2336,11 +2332,9 @@
       <c r="D4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>130</v>
@@ -2348,19 +2342,17 @@
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>130</v>
@@ -2368,7 +2360,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>138</v>
@@ -2376,11 +2368,9 @@
       <c r="D6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>130</v>
@@ -2457,10 +2447,10 @@
         <v>94</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2480,7 +2470,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -2542,7 +2532,7 @@
         <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2562,10 +2552,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>38</v>
@@ -2577,7 +2567,7 @@
         <v>63</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2617,13 +2607,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>104</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>94</v>
@@ -2646,13 +2636,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>166</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>98</v>
@@ -2664,18 +2654,18 @@
         <v>131</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>169</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>99</v>
@@ -2689,13 +2679,13 @@
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>171</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>100</v>
@@ -2709,13 +2699,13 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>173</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>101</v>
@@ -2744,7 +2734,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2769,10 +2759,10 @@
         <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>94</v>
@@ -2795,14 +2785,12 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
@@ -2810,15 +2798,15 @@
         <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D3" s="8">
         <v>0.001</v>
@@ -2829,38 +2817,38 @@
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="8">
         <v>2000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -2871,72 +2859,63 @@
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="D11" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2954,7 +2933,7 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3033,10 +3012,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>94</v>
@@ -3045,10 +3024,10 @@
         <v>72</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>29</v>
@@ -3063,22 +3042,22 @@
         <v>33</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>18</v>
@@ -3128,10 +3107,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>94</v>
@@ -3140,7 +3119,7 @@
         <v>72</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>18</v>
@@ -3268,7 +3247,7 @@
   <sheetPr/>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3291,46 +3270,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3365,8 +3344,8 @@
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="2"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="21"/>
-    <col min="1020" max="16384" width="9" style="21"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="22"/>
+    <col min="1020" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3445,7 +3424,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3527,7 +3506,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3537,7 +3516,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3691,8 +3670,8 @@
     <col min="2" max="3" width="8.78333333333333" style="2"/>
     <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
     <col min="5" max="1023" width="8.78333333333333" style="2"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="19"/>
-    <col min="1026" max="16384" width="9" style="19"/>
+    <col min="1024" max="1025" width="8.78333333333333" style="20"/>
+    <col min="1026" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:12">
@@ -3740,7 +3719,7 @@
       <c r="B2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="2" t="s">
         <v>75</v>
       </c>
@@ -3750,10 +3729,10 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -3762,7 +3741,7 @@
       <c r="B3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="2" t="s">
         <v>79</v>
       </c>
@@ -3772,10 +3751,10 @@
       <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -3784,7 +3763,7 @@
       <c r="B4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="2" t="s">
         <v>82</v>
       </c>
@@ -3794,72 +3773,72 @@
       <c r="F4" s="2">
         <v>4</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="20">
         <v>10</v>
       </c>
       <c r="F5" s="2">
         <v>10</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="20">
         <v>2</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="20">
         <v>3</v>
       </c>
       <c r="F7" s="2">
         <v>6</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="19" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4057,7 +4036,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -4116,13 +4095,13 @@
       <c r="C2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="19">
         <v>0.000148</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4133,13 +4112,13 @@
       <c r="C3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="19">
         <v>0.0002</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="19" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4150,13 +4129,13 @@
       <c r="C4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="19">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4167,13 +4146,13 @@
       <c r="C5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="19">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4184,13 +4163,13 @@
       <c r="C6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="19">
         <v>0.001</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="19" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4201,13 +4180,13 @@
       <c r="C7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="19">
         <v>0.002</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="19" t="s">
         <v>109</v>
       </c>
     </row>

--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="989" firstSheet="6" activeTab="19"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -764,12 +764,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -812,7 +812,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,7 +834,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,10 +888,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -860,14 +899,6 @@
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -887,20 +918,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -909,7 +926,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,25 +939,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -961,19 +961,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,49 +1015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,31 +1027,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,13 +1051,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,7 +1075,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,37 +1135,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,15 +1173,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1197,11 +1188,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,32 +1238,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1261,107 +1252,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1369,10 +1369,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1382,14 +1382,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1447,13 +1447,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2296,7 +2296,6 @@
       <c r="D2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>145</v>
       </c>
@@ -2314,7 +2313,6 @@
       <c r="D3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>147</v>
       </c>
@@ -2332,7 +2330,6 @@
       <c r="D4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>149</v>
       </c>
@@ -2350,7 +2347,6 @@
       <c r="D5" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>152</v>
       </c>
@@ -2368,7 +2364,6 @@
       <c r="D6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>154</v>
       </c>
@@ -2790,7 +2785,6 @@
       <c r="B2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
@@ -3247,7 +3241,7 @@
   <sheetPr/>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3333,10 +3327,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>

--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="989" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="989" firstSheet="6" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,12 @@
     <sheet name="Evidence" sheetId="18" r:id="rId18"/>
     <sheet name="Interpretations" sheetId="20" r:id="rId19"/>
     <sheet name="References" sheetId="17" r:id="rId20"/>
+    <sheet name="Authors" sheetId="21" r:id="rId21"/>
+    <sheet name="Changes" sheetId="22" r:id="rId22"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId23"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$7</definedName>
@@ -121,13 +126,14 @@
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="Id">'[1]Rate laws'!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="224">
   <si>
     <t>Id</t>
   </si>
@@ -168,564 +174,558 @@
     <t>wc_lang version</t>
   </si>
   <si>
+    <t>Time units</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Database references</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>taxon</t>
+  </si>
+  <si>
+    <t>Test model for TestExecutableModel</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>Rank not used</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
+    <t>submodel_1</t>
+  </si>
+  <si>
+    <t>Metabolism</t>
+  </si>
+  <si>
+    <t>dynamic_flux_balance_analysis</t>
+  </si>
+  <si>
+    <t>For testing</t>
+  </si>
+  <si>
+    <t>submodel_2</t>
+  </si>
+  <si>
+    <t>RNA degradation</t>
+  </si>
+  <si>
+    <t>stochastic_simulation_algorithm</t>
+  </si>
+  <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal_distribution</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular_compartment</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>specie_1</t>
+  </si>
+  <si>
+    <t>specie_name_1</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>specie_2</t>
+  </si>
+  <si>
+    <t>specie_name_2</t>
+  </si>
+  <si>
+    <t>NONa2</t>
+  </si>
+  <si>
+    <t>specie_3</t>
+  </si>
+  <si>
+    <t>specie_name_3</t>
+  </si>
+  <si>
+    <t>N2O2Na4</t>
+  </si>
+  <si>
+    <t>specie_4</t>
+  </si>
+  <si>
+    <t>specie_name_4</t>
+  </si>
+  <si>
+    <t>N5O5Na10</t>
+  </si>
+  <si>
+    <t>specie_5</t>
+  </si>
+  <si>
+    <t>specie_name_5</t>
+  </si>
+  <si>
+    <t>NONa</t>
+  </si>
+  <si>
+    <t>specie_6</t>
+  </si>
+  <si>
+    <t>specie_name_6</t>
+  </si>
+  <si>
+    <t>N3O3Na8</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>specie_1[e]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>specie_2[e]</t>
+  </si>
+  <si>
+    <t>specie_1[c]</t>
+  </si>
+  <si>
+    <t>specie_2[c]</t>
+  </si>
+  <si>
+    <t>specie_3[c]</t>
+  </si>
+  <si>
+    <t>specie_4[c]</t>
+  </si>
+  <si>
+    <t>specie_5[c]</t>
+  </si>
+  <si>
+    <t>specie_6[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_1[e]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_4[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_5[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_6[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_e</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Rate units</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_name_1</t>
+  </si>
+  <si>
+    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>M s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_name_2</t>
+  </si>
+  <si>
+    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>reaction_name_3</t>
+  </si>
+  <si>
+    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t>reaction_4</t>
+  </si>
+  <si>
+    <t>reaction_name_4</t>
+  </si>
+  <si>
+    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t>reaction_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_2_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_3_for * specie_4[c] / (K_m_3 * Avogadro * volume_c + specie_4[c])</t>
+  </si>
+  <si>
+    <t>reaction_3-backward</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
+  </si>
+  <si>
+    <t>reaction_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_4_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>dfba-obj-submodel_1</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>Metabolism_biomass</t>
+  </si>
+  <si>
+    <t>Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
+    <t>dFBA objective reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_1[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_2[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_2</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_3[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_3</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_4[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_4</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>Fraction of cell mass which is non water</t>
+  </si>
+  <si>
+    <t>[Ref-0006]</t>
+  </si>
+  <si>
+    <t>K_m_3</t>
+  </si>
+  <si>
+    <t>K_m</t>
+  </si>
+  <si>
+    <t>k_cat_1_for</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_2_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev</t>
+  </si>
+  <si>
+    <t>k_cat_4_for</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Author organization</t>
-  </si>
-  <si>
-    <t>Author email</t>
-  </si>
-  <si>
-    <t>Time units</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Database references</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
-    <t>taxon</t>
-  </si>
-  <si>
-    <t>Test model for TestExecutableModel</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>Rank not used</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Temperature units</t>
-  </si>
-  <si>
-    <t>degC</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>pH units</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>Evidence</t>
-  </si>
-  <si>
-    <t>Interpretations</t>
-  </si>
-  <si>
-    <t>submodel_1</t>
-  </si>
-  <si>
-    <t>Metabolism</t>
-  </si>
-  <si>
-    <t>dynamic_flux_balance_analysis</t>
-  </si>
-  <si>
-    <t>For testing</t>
-  </si>
-  <si>
-    <t>submodel_2</t>
-  </si>
-  <si>
-    <t>RNA degradation</t>
-  </si>
-  <si>
-    <t>stochastic_simulation_algorithm</t>
-  </si>
-  <si>
-    <t>Biological type</t>
-  </si>
-  <si>
-    <t>Physical type</t>
-  </si>
-  <si>
-    <t>Geometry</t>
-  </si>
-  <si>
-    <t>Parent compartment</t>
-  </si>
-  <si>
-    <t>Mass units</t>
-  </si>
-  <si>
-    <t>Initial volume distribution</t>
-  </si>
-  <si>
-    <t>Initial volume mean</t>
-  </si>
-  <si>
-    <t>Initial volume standard deviation</t>
-  </si>
-  <si>
-    <t>Initial volume units</t>
-  </si>
-  <si>
-    <t>Initial density</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>cellular_compartment</t>
-  </si>
-  <si>
-    <t>fluid_compartment</t>
-  </si>
-  <si>
-    <t>3D_compartment</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>normal_distribution</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>density_c</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular_compartment</t>
-  </si>
-  <si>
-    <t>density_e</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>specie_1</t>
-  </si>
-  <si>
-    <t>specie_name_1</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>specie_2</t>
-  </si>
-  <si>
-    <t>specie_name_2</t>
-  </si>
-  <si>
-    <t>NONa2</t>
-  </si>
-  <si>
-    <t>specie_3</t>
-  </si>
-  <si>
-    <t>specie_name_3</t>
-  </si>
-  <si>
-    <t>N2O2Na4</t>
-  </si>
-  <si>
-    <t>specie_4</t>
-  </si>
-  <si>
-    <t>specie_name_4</t>
-  </si>
-  <si>
-    <t>N5O5Na10</t>
-  </si>
-  <si>
-    <t>specie_5</t>
-  </si>
-  <si>
-    <t>specie_name_5</t>
-  </si>
-  <si>
-    <t>NONa</t>
-  </si>
-  <si>
-    <t>specie_6</t>
-  </si>
-  <si>
-    <t>specie_name_6</t>
-  </si>
-  <si>
-    <t>N3O3Na8</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>specie_1[e]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>specie_2[e]</t>
-  </si>
-  <si>
-    <t>specie_1[c]</t>
-  </si>
-  <si>
-    <t>specie_2[c]</t>
-  </si>
-  <si>
-    <t>specie_3[c]</t>
-  </si>
-  <si>
-    <t>specie_4[c]</t>
-  </si>
-  <si>
-    <t>specie_5[c]</t>
-  </si>
-  <si>
-    <t>specie_6[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_1[e]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_4[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_5[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_6[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>volume_c</t>
-  </si>
-  <si>
-    <t>c / density_c</t>
-  </si>
-  <si>
-    <t>volume_e</t>
-  </si>
-  <si>
-    <t>e / density_e</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Rate units</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>reaction_1</t>
-  </si>
-  <si>
-    <t>reaction_name_1</t>
-  </si>
-  <si>
-    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>M s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2</t>
-  </si>
-  <si>
-    <t>reaction_name_2</t>
-  </si>
-  <si>
-    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t>reaction_3</t>
-  </si>
-  <si>
-    <t>reaction_name_3</t>
-  </si>
-  <si>
-    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t>reaction_4</t>
-  </si>
-  <si>
-    <t>reaction_name_4</t>
-  </si>
-  <si>
-    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>reaction_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_2_for * specie_2[c]</t>
-  </si>
-  <si>
-    <t>reaction_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_3_for * specie_4[c] / (K_m_3 * Avogadro * volume_c + specie_4[c])</t>
-  </si>
-  <si>
-    <t>reaction_3-backward</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
-  </si>
-  <si>
-    <t>reaction_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_4_for * specie_2[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>dfba-obj-submodel_1</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>Metabolism_biomass</t>
-  </si>
-  <si>
-    <t>Metabolism biomass reaction</t>
-  </si>
-  <si>
-    <t>No comment</t>
-  </si>
-  <si>
-    <t>dFBA objective reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_1[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_2[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_2</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_3[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_3</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_4[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_4</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>Fraction of cell mass which is non water</t>
-  </si>
-  <si>
-    <t>[Ref-0006]</t>
-  </si>
-  <si>
-    <t>K_m_3</t>
-  </si>
-  <si>
-    <t>K_m</t>
-  </si>
-  <si>
-    <t>k_cat_1_for</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_2_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev</t>
-  </si>
-  <si>
-    <t>k_cat_4_for</t>
-  </si>
-  <si>
-    <t>g l^-1</t>
-  </si>
-  <si>
-    <t>Avogadro</t>
-  </si>
-  <si>
-    <t>molecule mol^-1</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Experiment type</t>
-  </si>
-  <si>
-    <t>Experiment design</t>
-  </si>
-  <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Editor</t>
   </si>
   <si>
@@ -757,6 +757,54 @@
   </si>
   <si>
     <t>Pages</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Middle name</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ORCID</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Target type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Reason type</t>
+  </si>
+  <si>
+    <t>Intention</t>
+  </si>
+  <si>
+    <t>Intention type</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -765,11 +813,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -812,6 +860,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -834,23 +920,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -858,14 +928,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,16 +943,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,40 +979,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -961,19 +1009,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,7 +1039,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,25 +1063,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,7 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,7 +1099,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,25 +1135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,25 +1147,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,31 +1189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,6 +1217,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1223,36 +1301,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1264,132 +1312,132 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1400,16 +1448,16 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1592,6 +1640,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Model"/>
+      <sheetName val="Taxon"/>
+      <sheetName val="Environment"/>
+      <sheetName val="Submodels"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Species types"/>
+      <sheetName val="Species"/>
+      <sheetName val="Initial species concentrations"/>
+      <sheetName val="Observables"/>
+      <sheetName val="Functions"/>
+      <sheetName val="Reactions"/>
+      <sheetName val="Rate laws"/>
+      <sheetName val="dFBA objectives"/>
+      <sheetName val="dFBA objective reactions"/>
+      <sheetName val="dFBA objective species"/>
+      <sheetName val="Parameters"/>
+      <sheetName val="Stop conditions"/>
+      <sheetName val="Evidence"/>
+      <sheetName val="Interpretations"/>
+      <sheetName val="References"/>
+      <sheetName val="Authors"/>
+      <sheetName val="Changes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1852,117 +1955,102 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A8" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
-    <col min="2" max="1025" width="8.78333333333333" style="2"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="4" t="s">
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
+      <c r="A9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:1">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:1">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1990,61 +2078,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="8.78333333333333" style="2"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1" max="2" width="8.78333333333333" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="1026" width="8.78333333333333" style="1"/>
     <col min="1027" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>63</v>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2072,148 +2160,148 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="8.78333333333333" style="2"/>
-    <col min="2" max="2" width="13.3416666666667" style="2"/>
-    <col min="3" max="3" width="10.025" style="2"/>
-    <col min="4" max="4" width="42" style="2"/>
-    <col min="5" max="10" width="8.78333333333333" style="2"/>
-    <col min="11" max="1027" width="8.78333333333333" style="1"/>
+    <col min="1" max="1" width="8.78333333333333" style="1"/>
+    <col min="2" max="2" width="13.3416666666667" style="1"/>
+    <col min="3" max="3" width="10.025" style="1"/>
+    <col min="4" max="4" width="42" style="1"/>
+    <col min="5" max="10" width="8.78333333333333" style="1"/>
+    <col min="11" max="1027" width="8.78333333333333" style="3"/>
     <col min="1028" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="2">
+      <c r="B3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>130</v>
+      <c r="F5" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2241,134 +2329,134 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="2" customWidth="1"/>
-    <col min="2" max="4" width="8.78333333333333" style="2"/>
-    <col min="5" max="5" width="4.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.375" style="2" customWidth="1"/>
-    <col min="7" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.78333333333333" style="1"/>
+    <col min="5" max="5" width="4.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.375" style="1" customWidth="1"/>
+    <col min="7" max="1026" width="8.78333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>130</v>
+      <c r="G6" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="6:8">
@@ -2418,69 +2506,69 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="22.925" style="2"/>
-    <col min="2" max="3" width="9.10833333333333" style="2"/>
-    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.25" style="2" customWidth="1"/>
-    <col min="7" max="1028" width="9.10833333333333" style="2"/>
+    <col min="1" max="1" width="22.925" style="1"/>
+    <col min="2" max="3" width="9.10833333333333" style="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="1028" width="9.10833333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
+      <c r="C1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2509,60 +2597,60 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="5" width="8.78333333333333" style="9"/>
-    <col min="6" max="1026" width="8.78333333333333" style="2"/>
+    <col min="6" max="1026" width="8.78333333333333" style="1"/>
     <col min="1027" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
+      <c r="C1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2590,7 +2678,7 @@
     <col min="1" max="3" width="8.78333333333333" style="9"/>
     <col min="4" max="6" width="9.875" style="9"/>
     <col min="7" max="7" width="8.78333333333333" style="9"/>
-    <col min="8" max="1026" width="8.78333333333333" style="2"/>
+    <col min="8" max="1026" width="8.78333333333333" style="1"/>
     <col min="1027" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
@@ -2602,114 +2690,114 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>156</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E2" s="12">
         <v>-3</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>156</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="E3" s="12">
         <v>-4</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>156</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E5" s="12">
         <v>2</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2734,182 +2822,182 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
-    <col min="2" max="3" width="8.78333333333333" style="2"/>
-    <col min="4" max="4" width="9.25" style="2"/>
-    <col min="5" max="5" width="8.78333333333333" style="2"/>
-    <col min="6" max="6" width="14.375" style="2" customWidth="1"/>
-    <col min="7" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.78333333333333" style="1"/>
+    <col min="4" max="4" width="9.25" style="1"/>
+    <col min="5" max="5" width="8.78333333333333" style="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="1026" width="8.78333333333333" style="1"/>
     <col min="1027" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D3" s="8">
         <v>0.001</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>109</v>
+      <c r="F3" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>180</v>
+      <c r="C5" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="D5" s="8">
         <v>2000</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1100</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="D11" s="8">
         <v>6.02214075862e+23</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>188</v>
+      <c r="F11" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2937,37 +3025,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.78333333333333" style="2"/>
-    <col min="1027" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
+      <c r="C1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2995,7 +3083,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
@@ -3006,64 +3094,64 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="P1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="U1" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3087,9 +3175,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
-    <col min="3" max="1022" width="9.10833333333333" style="2"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="1"/>
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
@@ -3101,31 +3189,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -3183,50 +3271,50 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
+    <col min="1" max="1025" width="8.78333333333333" style="1"/>
     <col min="1026" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3251,65 +3339,65 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1023" width="8.78333333333333" style="2"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="1023" width="8.78333333333333" style="1"/>
+    <col min="1024" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1026" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>19</v>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3322,12 +3410,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
@@ -3335,71 +3562,71 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
-    <col min="3" max="1018" width="8.78333333333333" style="2"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="1018" width="8.78333333333333" style="1"/>
     <col min="1019" max="1019" width="8.78333333333333" style="22"/>
     <col min="1020" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="1">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
+      <c r="A7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
+      <c r="A8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
+      <c r="A9" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3423,64 +3650,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1021" width="8.78333333333333" style="2"/>
-    <col min="1022" max="1024" width="8.78333333333333" style="3"/>
+    <col min="1" max="1021" width="8.78333333333333" style="1"/>
+    <col min="1022" max="1024" width="8.78333333333333" style="4"/>
     <col min="1025" max="1026" width="8.78333333333333" style="15"/>
     <col min="1027" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1025">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1025">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AMI1" s="4"/>
+      <c r="AMJ1" s="4"/>
+      <c r="AMK1" s="15"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AMI1" s="3"/>
-      <c r="AMJ1" s="3"/>
-      <c r="AMK1" s="15"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3505,134 +3732,134 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1031" width="8.78333333333333" style="2"/>
+    <col min="1" max="1031" width="8.78333333333333" style="1"/>
     <col min="1032" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:17">
+    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:17">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I2" s="8">
         <v>4.58e-17</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:12">
-      <c r="A3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3660,180 +3887,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="3" width="8.78333333333333" style="2"/>
-    <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
-    <col min="5" max="1023" width="8.78333333333333" style="2"/>
+    <col min="1" max="1" width="8" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.78333333333333" style="1"/>
+    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="5" max="1023" width="8.78333333333333" style="1"/>
     <col min="1024" max="1025" width="8.78333333333333" style="20"/>
     <col min="1026" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>4</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H4" s="19"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" s="20"/>
-      <c r="D5" s="2" t="s">
-        <v>85</v>
+      <c r="D5" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E5" s="20">
         <v>10</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>10</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H5" s="19"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="2" t="s">
-        <v>88</v>
+      <c r="D6" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E6" s="20">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H6" s="19"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E7" s="20">
         <v>3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>6</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3861,153 +4088,153 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="16.3916666666667" style="2"/>
-    <col min="7" max="1026" width="9.10833333333333" style="2"/>
-    <col min="1027" max="16384" width="9" style="2"/>
+    <col min="1" max="6" width="16.3916666666667" style="1"/>
+    <col min="7" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>96</v>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4035,153 +4262,153 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="2" width="10.7166666666667" style="3"/>
-    <col min="3" max="3" width="10.7166666666667" style="2"/>
-    <col min="4" max="4" width="10.6" style="2"/>
-    <col min="5" max="5" width="9.75" style="2"/>
-    <col min="6" max="7" width="8.78333333333333" style="2"/>
-    <col min="8" max="1026" width="8.78333333333333" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="10.7166666666667" style="4"/>
+    <col min="3" max="3" width="10.7166666666667" style="1"/>
+    <col min="4" max="4" width="10.6" style="1"/>
+    <col min="5" max="5" width="9.75" style="1"/>
+    <col min="6" max="7" width="8.78333333333333" style="1"/>
+    <col min="8" max="1026" width="8.78333333333333" style="4"/>
+    <col min="1027" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="19">
         <v>0.000148</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>97</v>
+      <c r="A3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" s="19">
         <v>0.0002</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>99</v>
+      <c r="A4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E4" s="19">
         <v>0.0005</v>
       </c>
       <c r="G4" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>101</v>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5" s="19">
         <v>0.0005</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>102</v>
+      <c r="A6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E6" s="19">
         <v>0.001</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>103</v>
+      <c r="A7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="19">
         <v>0.002</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4206,7 +4433,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1" max="1026" width="8.78333333333333" style="1"/>
     <col min="1027" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -4218,25 +4445,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="989" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="989" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="225">
   <si>
     <t>Id</t>
   </si>
@@ -720,6 +720,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -786,6 +789,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -799,9 +805,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -813,10 +816,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -854,11 +857,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -866,24 +864,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,31 +886,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -936,9 +925,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -957,16 +946,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,10 +961,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -991,6 +987,13 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1021,49 +1024,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,7 +1048,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,103 +1168,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,6 +1224,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1232,6 +1276,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,47 +1304,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1300,147 +1312,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3163,14 +3166,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3181,7 +3184,7 @@
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3214,6 +3217,9 @@
       </c>
       <c r="K1" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -3352,46 +3358,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -3436,31 +3442,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -3478,14 +3484,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3493,7 +3499,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3504,43 +3510,46 @@
         <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>223</v>
+        <v>195</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -7,30 +7,30 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="989" visibility="visible" windowHeight="13965" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Taxon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Environment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Submodels" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Compartments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observables" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Functions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Parameters" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observations" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!References" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Authors" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Changes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Taxon" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Environment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Submodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Authors" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <externalReferences>
     <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
@@ -122,12 +122,12 @@
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
     <definedName name="Id">'[1]Rate laws'!$A:$A</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!Compartments'!$A$2:$H$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!Species types'!$A$2:$K$8</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!Reactions'!$A$2:$D$6</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!Parameters'!$A$1:$E$11</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!References'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$H$4</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$K$8</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$D$6</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$E$11</definedName>
+    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -756,14 +756,14 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,7 +773,7 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="8" fillId="21" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1258,7 +1258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1275,42 +1275,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="29" t="inlineStr">
         <is>
           <t>!Table</t>
         </is>
       </c>
-      <c r="B2" s="29" t="inlineStr">
+      <c r="B3" s="29" t="inlineStr">
         <is>
           <t>!Description</t>
         </is>
       </c>
-      <c r="C2" s="29" t="inlineStr">
+      <c r="C3" s="29" t="inlineStr">
         <is>
           <t>!Number of objects</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="30" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B3" s="30" t="n"/>
-      <c r="C3" s="30" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="30" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B4" s="30" t="n"/>
@@ -1321,7 +1317,7 @@
     <row r="5">
       <c r="A5" s="30" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B5" s="30" t="n"/>
@@ -1332,220 +1328,231 @@
     <row r="6">
       <c r="A6" s="30" t="inlineStr">
         <is>
-          <t>Submodels</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B6" s="30" t="n"/>
       <c r="C6" s="30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="30" t="inlineStr">
         <is>
-          <t>Compartments</t>
+          <t>Submodels</t>
         </is>
       </c>
       <c r="B7" s="30" t="n"/>
       <c r="C7" s="30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="30" t="inlineStr">
         <is>
-          <t>Species types</t>
+          <t>Compartments</t>
         </is>
       </c>
       <c r="B8" s="30" t="n"/>
       <c r="C8" s="30" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="30" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Species types</t>
         </is>
       </c>
       <c r="B9" s="30" t="n"/>
       <c r="C9" s="30" t="n">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="30" t="inlineStr">
         <is>
-          <t>Initial species concentrations</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B10" s="30" t="n"/>
       <c r="C10" s="30" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="30" t="inlineStr">
         <is>
-          <t>Observables</t>
+          <t>Initial species concentrations</t>
         </is>
       </c>
       <c r="B11" s="30" t="n"/>
       <c r="C11" s="30" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="30" t="inlineStr">
         <is>
-          <t>Functions</t>
+          <t>Observables</t>
         </is>
       </c>
       <c r="B12" s="30" t="n"/>
       <c r="C12" s="30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="30" t="inlineStr">
         <is>
-          <t>Reactions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="B13" s="30" t="n"/>
       <c r="C13" s="30" t="n">
-        <v>175</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="30" t="inlineStr">
         <is>
-          <t>Rate laws</t>
+          <t>Reactions</t>
         </is>
       </c>
       <c r="B14" s="30" t="n"/>
       <c r="C14" s="30" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="30" t="inlineStr">
         <is>
-          <t>dFBA objectives</t>
+          <t>Rate laws</t>
         </is>
       </c>
       <c r="B15" s="30" t="n"/>
       <c r="C15" s="30" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="30" t="inlineStr">
         <is>
-          <t>dFBA objective reactions</t>
+          <t>dFBA objectives</t>
         </is>
       </c>
       <c r="B16" s="30" t="n"/>
       <c r="C16" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="30" t="inlineStr">
         <is>
-          <t>dFBA objective species</t>
+          <t>dFBA objective reactions</t>
         </is>
       </c>
       <c r="B17" s="30" t="n"/>
       <c r="C17" s="30" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="30" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>dFBA objective species</t>
         </is>
       </c>
       <c r="B18" s="30" t="n"/>
       <c r="C18" s="30" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="30" t="inlineStr">
         <is>
-          <t>Stop conditions</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="B19" s="30" t="n"/>
       <c r="C19" s="30" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="30" t="inlineStr">
         <is>
-          <t>Observations</t>
+          <t>Stop conditions</t>
         </is>
       </c>
       <c r="B20" s="30" t="n"/>
       <c r="C20" s="30" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="30" t="inlineStr">
         <is>
-          <t>Observation sets</t>
+          <t>Observations</t>
         </is>
       </c>
       <c r="B21" s="30" t="n"/>
       <c r="C21" s="30" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="30" t="inlineStr">
         <is>
-          <t>Conclusions</t>
+          <t>Observation sets</t>
         </is>
       </c>
       <c r="B22" s="30" t="n"/>
       <c r="C22" s="30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="30" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Conclusions</t>
         </is>
       </c>
       <c r="B23" s="30" t="n"/>
       <c r="C23" s="30" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="30" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="B24" s="30" t="n"/>
       <c r="C24" s="30" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="30" t="inlineStr">
         <is>
-          <t>Changes</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B25" s="30" t="n"/>
       <c r="C25" s="30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="30" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="B26" s="30" t="n"/>
+      <c r="C26" s="30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,7 +1611,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1703,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD7"/>
+  <dimension ref="A1:AMM7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -1825,7 +1832,7 @@
     <row customHeight="1" ht="13.5" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4094,7 +4101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -4116,7 +4123,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4317,12 +4324,6 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
   <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
@@ -4357,7 +4358,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4495,7 +4496,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4618,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4840,7 @@
     <row customFormat="1" r="1" s="22">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5122,7 +5123,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFC3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -5211,7 +5212,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5388,7 +5389,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5552,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5636,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5794,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5920,7 +5921,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6015,7 +6016,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6134,7 +6135,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6232,7 +6233,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6330,7 +6331,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6430,7 +6431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD5"/>
+  <dimension ref="A1:AMR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -6449,7 +6450,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8790,7 +8791,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9083,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -9358,7 +9359,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>

--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -15,7 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Init species concentrations" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>

--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="989" visibility="visible" windowHeight="13965" windowWidth="28695"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28695" windowHeight="13965" tabRatio="989" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
@@ -36,98 +36,98 @@
     <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
   </externalReferences>
   <definedNames>
-    <definedName localSheetId="5" name="_FilterDatabase_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Compartments!$A$2:$H$4</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">Parameters!$A$1:$E$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$H$4</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
     <definedName name="Id">'[1]Rate laws'!$A:$A</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$H$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$K$8</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$D$6</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$E$11</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Compartments'!$A$2:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Species types'!$A$2:$K$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Reactions'!$A$2:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Parameters'!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!References'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -136,9 +136,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="164"/>
-    <numFmt formatCode="0.000E+00" numFmtId="165"/>
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -651,290 +651,290 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="25" numFmtId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="22" numFmtId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="9" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="166"/>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="13" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="11" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="9" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="24" numFmtId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="8" fillId="21" fontId="23" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
-    <cellStyle builtinId="27" name="Bad" xfId="23"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
-    <cellStyle builtinId="25" name="Total" xfId="25"/>
-    <cellStyle builtinId="21" name="Output" xfId="26"/>
-    <cellStyle builtinId="4" name="Currency" xfId="27"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
-    <cellStyle builtinId="10" name="Note" xfId="29"/>
-    <cellStyle builtinId="20" name="Input" xfId="30"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
-    <cellStyle builtinId="26" name="Good" xfId="33"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
-    <cellStyle builtinId="15" name="Title" xfId="39"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
-    <cellStyle builtinId="3" name="Comma" xfId="44"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
-    <cellStyle builtinId="5" name="Percent" xfId="47"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1261,28 +1261,28 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A19" pane="bottomLeft" sqref="A19:A21"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="28" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="4" style="28" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="28" min="1" max="3"/>
+    <col hidden="1" width="9" customWidth="1" style="28" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables objTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Schema' objTablesVersion='0.0.8' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1559,30 +1559,30 @@
   </sheetData>
   <autoFilter ref="A1:C24"/>
   <hyperlinks>
-    <hyperlink display="Model" location="'Model'!A1" ref="A2" tooltip="Click to view model"/>
-    <hyperlink display="Taxon" location="'Taxon'!A1" ref="A3" tooltip="Click to view taxon"/>
-    <hyperlink display="Environment" location="'Environment'!A1" ref="A4" tooltip="Click to view environment"/>
-    <hyperlink display="Submodels" location="'Submodels'!A1" ref="A5" tooltip="Click to view submodels"/>
-    <hyperlink display="Compartments" location="'Compartments'!A1" ref="A6" tooltip="Click to view compartments"/>
-    <hyperlink display="Species types" location="'Species types'!A1" ref="A7" tooltip="Click to view species types"/>
-    <hyperlink display="Species" location="'Species'!A1" ref="A8" tooltip="Click to view species"/>
-    <hyperlink display="Initial species concentrations" location="'Initial species concentrations'!A1" ref="A9" tooltip="Click to view initial species concentrations"/>
-    <hyperlink display="Observables" location="'Observables'!A1" ref="A10" tooltip="Click to view observables"/>
-    <hyperlink display="Functions" location="'Functions'!A1" ref="A11" tooltip="Click to view functions"/>
-    <hyperlink display="Reactions" location="'Reactions'!A1" ref="A12" tooltip="Click to view reactions"/>
-    <hyperlink display="Rate laws" location="'Rate laws'!A1" ref="A13" tooltip="Click to view rate laws"/>
-    <hyperlink display="dFBA objectives" location="'dFBA objectives'!A1" ref="A14" tooltip="Click to view dfba objectives"/>
-    <hyperlink display="dFBA objective reactions" location="'dFBA objective reactions'!A1" ref="A15" tooltip="Click to view dfba objective reactions"/>
-    <hyperlink display="dFBA objective species" location="'dFBA objective species'!A1" ref="A16" tooltip="Click to view dfba objective species"/>
-    <hyperlink display="Parameters" location="'Parameters'!A1" ref="A17" tooltip="Click to view parameters"/>
-    <hyperlink display="Stop conditions" location="'Stop conditions'!A1" ref="A18" tooltip="Click to view stop conditions"/>
-    <hyperlink display="Observations" location="'Evidence'!A1" ref="A19" tooltip="Click to view evidence"/>
-    <hyperlink display="Conclusions" location="'Interpretations'!A1" ref="A21" tooltip="Click to view interpretations"/>
-    <hyperlink display="References" location="'References'!A1" ref="A22" tooltip="Click to view references"/>
-    <hyperlink display="Authors" location="'Authors'!A1" ref="A23" tooltip="Click to view authors"/>
-    <hyperlink display="Changes" location="'Changes'!A1" ref="A24" tooltip="Click to view changes"/>
+    <hyperlink ref="A2" location="'Model'!A1" tooltip="Click to view model" display="Model"/>
+    <hyperlink ref="A3" location="'Taxon'!A1" tooltip="Click to view taxon" display="Taxon"/>
+    <hyperlink ref="A4" location="'Environment'!A1" tooltip="Click to view environment" display="Environment"/>
+    <hyperlink ref="A5" location="'Submodels'!A1" tooltip="Click to view submodels" display="Submodels"/>
+    <hyperlink ref="A6" location="'Compartments'!A1" tooltip="Click to view compartments" display="Compartments"/>
+    <hyperlink ref="A7" location="'Species types'!A1" tooltip="Click to view species types" display="Species types"/>
+    <hyperlink ref="A8" location="'Species'!A1" tooltip="Click to view species" display="Species"/>
+    <hyperlink ref="A9" location="'Initial species concentrations'!A1" tooltip="Click to view initial species concentrations" display="Initial species concentrations"/>
+    <hyperlink ref="A10" location="'Observables'!A1" tooltip="Click to view observables" display="Observables"/>
+    <hyperlink ref="A11" location="'Functions'!A1" tooltip="Click to view functions" display="Functions"/>
+    <hyperlink ref="A12" location="'Reactions'!A1" tooltip="Click to view reactions" display="Reactions"/>
+    <hyperlink ref="A13" location="'Rate laws'!A1" tooltip="Click to view rate laws" display="Rate laws"/>
+    <hyperlink ref="A14" location="'dFBA objectives'!A1" tooltip="Click to view dfba objectives" display="dFBA objectives"/>
+    <hyperlink ref="A15" location="'dFBA objective reactions'!A1" tooltip="Click to view dfba objective reactions" display="dFBA objective reactions"/>
+    <hyperlink ref="A16" location="'dFBA objective species'!A1" tooltip="Click to view dfba objective species" display="dFBA objective species"/>
+    <hyperlink ref="A17" location="'Parameters'!A1" tooltip="Click to view parameters" display="Parameters"/>
+    <hyperlink ref="A18" location="'Stop conditions'!A1" tooltip="Click to view stop conditions" display="Stop conditions"/>
+    <hyperlink ref="A19" location="'Evidence'!A1" tooltip="Click to view evidence" display="Observations"/>
+    <hyperlink ref="A21" location="'Interpretations'!A1" tooltip="Click to view interpretations" display="Conclusions"/>
+    <hyperlink ref="A22" location="'References'!A1" tooltip="Click to view references" display="References"/>
+    <hyperlink ref="A23" location="'Authors'!A1" tooltip="Click to view authors" display="Authors"/>
+    <hyperlink ref="A24" location="'Changes'!A1" tooltip="Click to view changes" display="Changes"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1595,23 +1595,23 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G1" pane="bottomRight" sqref="G1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1026" min="1" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="9" width="9"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="1" max="1026"/>
+    <col width="9" customWidth="1" style="9" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1663,8 +1663,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -1685,25 +1685,25 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G1" pane="bottomRight" sqref="G1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="3" min="3" style="22" width="11"/>
-    <col customWidth="1" max="1026" min="4" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="9" width="9"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="1" max="2"/>
+    <col width="11" customWidth="1" style="22" min="3" max="3"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="4" max="1026"/>
+    <col width="9" customWidth="1" style="9" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1789,8 +1789,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -1811,32 +1811,32 @@
   <dimension ref="A1:AMM7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G2" pane="bottomRight" sqref="G2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="2" min="2" style="22" width="13.3416666666667"/>
-    <col customWidth="1" max="3" min="3" style="22" width="10.025"/>
-    <col customWidth="1" max="4" min="4" style="22" width="42"/>
-    <col customWidth="1" max="10" min="5" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="1027" min="11" style="3" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1028" style="17" width="9"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="1" max="1"/>
+    <col width="13.3416666666667" customWidth="1" style="22" min="2" max="2"/>
+    <col width="10.025" customWidth="1" style="22" min="3" max="3"/>
+    <col width="42" customWidth="1" style="22" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="5" max="10"/>
+    <col width="8.78333333333333" customWidth="1" style="3" min="11" max="1027"/>
+    <col width="9" customWidth="1" style="17" min="1028" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.5" r="1">
+    <row r="1" ht="13.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="18" t="n"/>
       <c r="B2" s="18" t="n"/>
       <c r="C2" s="18" t="n"/>
@@ -4090,8 +4090,8 @@
   <mergeCells count="1">
     <mergeCell ref="G2:I2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4104,26 +4104,26 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="E2" pane="bottomRight" sqref="E2:E7"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="22" width="17.75"/>
-    <col customWidth="1" max="4" min="2" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="5" min="5" style="22" width="4.875"/>
-    <col customWidth="1" max="6" min="6" style="22" width="41.375"/>
-    <col customWidth="1" max="1026" min="7" style="22" width="8.78333333333333"/>
+    <col width="17.75" customWidth="1" style="22" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="2" max="4"/>
+    <col width="4.875" customWidth="1" style="22" min="5" max="5"/>
+    <col width="41.375" customWidth="1" style="22" min="6" max="6"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="7" max="1026"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4325,8 +4325,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4339,26 +4339,26 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="22" width="22.925"/>
-    <col customWidth="1" max="3" min="2" style="22" width="9.108333333333331"/>
-    <col customWidth="1" max="4" min="4" style="22" width="10.5"/>
-    <col customWidth="1" max="6" min="5" style="22" width="12.25"/>
-    <col customWidth="1" max="1028" min="7" style="22" width="9.108333333333331"/>
+    <col width="22.925" customWidth="1" style="22" min="1" max="1"/>
+    <col width="9.108333333333331" customWidth="1" style="22" min="2" max="3"/>
+    <col width="10.5" customWidth="1" style="22" min="4" max="4"/>
+    <col width="12.25" customWidth="1" style="22" min="5" max="6"/>
+    <col width="9.108333333333331" customWidth="1" style="22" min="7" max="1028"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4457,8 +4457,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -4479,24 +4479,24 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="H1" pane="bottomRight" sqref="H1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="11" width="8.78333333333333"/>
-    <col customWidth="1" max="1026" min="6" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="12" width="9"/>
+    <col width="8.78333333333333" customWidth="1" style="11" min="1" max="5"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="6" max="1026"/>
+    <col width="9" customWidth="1" style="12" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4585,8 +4585,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4599,26 +4599,26 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="I1" pane="bottomRight" sqref="I1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="11" width="8.78333333333333"/>
-    <col customWidth="1" max="6" min="4" style="11" width="9.875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="8.78333333333333"/>
-    <col customWidth="1" max="1026" min="8" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="12" width="9"/>
+    <col width="8.78333333333333" customWidth="1" style="11" min="1" max="3"/>
+    <col width="9.875" customWidth="1" style="11" min="4" max="6"/>
+    <col width="8.78333333333333" customWidth="1" style="11" min="7" max="7"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="8" max="1026"/>
+    <col width="9" customWidth="1" style="12" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4805,8 +4805,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4819,28 +4819,28 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="C11" pane="bottomRight" sqref="C11"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="22" width="15.25"/>
-    <col customWidth="1" max="3" min="2" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="4" min="4" style="22" width="9.25"/>
-    <col customWidth="1" max="5" min="5" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="6" min="6" style="22" width="14.375"/>
-    <col customWidth="1" max="1026" min="7" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="9" width="9"/>
+    <col width="15.25" customWidth="1" style="22" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="2" max="3"/>
+    <col width="9.25" customWidth="1" style="22" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="5" max="5"/>
+    <col width="14.375" customWidth="1" style="22" min="6" max="6"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="7" max="1026"/>
+    <col width="9" customWidth="1" style="9" min="1027" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="22">
+    <row r="1" customFormat="1" s="22">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5093,8 +5093,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E11"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -5107,23 +5107,23 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="J13" pane="bottomRight" sqref="J13"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1026" min="1" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="22" width="9"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="1" max="1026"/>
+    <col width="9" customWidth="1" style="22" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5175,8 +5175,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -5197,26 +5197,26 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="V1" pane="bottomRight" sqref="V$1:V$1048576"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V$1:V$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="22" width="9"/>
+    <col width="9" customWidth="1" style="22" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="G2" s="8" t="inlineStr">
         <is>
           <t>!Genotype</t>
@@ -5362,7 +5362,7 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5375,21 +5375,21 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A8" pane="topRight" sqref="$A8:$XFD10"/>
+      <selection pane="topRight" activeCell="A8" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="22" width="18.5"/>
-    <col customWidth="1" max="1025" min="2" style="22" width="8.78333333333333"/>
+    <col width="18.5" customWidth="1" style="22" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="2" max="1025"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5519,10 +5519,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://github.com/org/repo" ref="B4" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" display="https://github.com/org/repo" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -5535,28 +5535,28 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="22" width="14"/>
-    <col customWidth="1" max="3" min="2" style="22" width="13.3916666666667"/>
-    <col customWidth="1" max="1017" min="4" style="22" width="9.108333333333331"/>
+    <col width="14" customWidth="1" style="22" min="1" max="1"/>
+    <col width="13.3916666666667" customWidth="1" style="22" min="2" max="3"/>
+    <col width="9.108333333333331" customWidth="1" style="22" min="4" max="1017"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="5" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -5588,16 +5588,16 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3"/>
-    <row customHeight="1" ht="15.1" r="4"/>
-    <row customHeight="1" ht="15.1" r="5"/>
-    <row customHeight="1" ht="15.1" r="6"/>
-    <row customHeight="1" ht="15.1" r="7"/>
-    <row customHeight="1" ht="15.1" r="8"/>
-    <row customHeight="1" ht="15.1" r="9"/>
+    <row r="3" ht="15.1" customHeight="1"/>
+    <row r="4" ht="15.1" customHeight="1"/>
+    <row r="5" ht="15.1" customHeight="1"/>
+    <row r="6" ht="15.1" customHeight="1"/>
+    <row r="7" ht="15.1" customHeight="1"/>
+    <row r="8" ht="15.1" customHeight="1"/>
+    <row r="9" ht="15.1" customHeight="1"/>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -5618,36 +5618,36 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="N2" pane="bottomRight" sqref="N2:N3"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="22" width="15.125"/>
-    <col customWidth="1" max="2" min="2" style="22" width="14.75"/>
-    <col customWidth="1" max="1023" min="3" style="22" width="9.108333333333331"/>
-    <col customWidth="1" max="1024" min="1024" width="9.108333333333331"/>
+    <col width="15.125" customWidth="1" style="22" min="1" max="1"/>
+    <col width="14.75" customWidth="1" style="22" min="2" max="2"/>
+    <col width="9.108333333333331" customWidth="1" style="22" min="3" max="1023"/>
+    <col width="9.108333333333331" customWidth="1" min="1024" max="1024"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="G2" s="7" t="inlineStr">
         <is>
           <t>!Process</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -5719,31 +5719,31 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="C4" s="6" t="n"/>
       <c r="D4" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="C5" s="6" t="n"/>
       <c r="D5" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="C6" s="6" t="n"/>
       <c r="D6" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="C7" s="6" t="n"/>
       <c r="D7" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="C8" s="6" t="n"/>
       <c r="D8" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="C9" s="6" t="n"/>
       <c r="D9" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="C10" s="6" t="n"/>
       <c r="D10" s="6" t="n"/>
     </row>
@@ -5755,8 +5755,8 @@
   <mergeCells count="1">
     <mergeCell ref="G2:H2"/>
   </mergeCells>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -5777,24 +5777,24 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="F9" pane="bottomRight" sqref="F9"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1023" min="1" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="1025" min="1024" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1026" style="4" width="9"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="1" max="1023"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="1024" max="1025"/>
+    <col width="9" customWidth="1" style="4" min="1026" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3">
+    <row r="1" customFormat="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5892,8 +5892,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -5906,22 +5906,22 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="O17" pane="bottomRight" sqref="O17"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="22" width="9"/>
+    <col width="9" customWidth="1" style="22" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6001,22 +6001,22 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="E2" pane="bottomRight" sqref="E2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="22" width="9"/>
+    <col width="9" customWidth="1" style="22" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6108,7 +6108,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6121,21 +6121,21 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="B2" pane="topRight" sqref="B2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1026" style="12" width="9"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="1" max="1025"/>
+    <col width="9" customWidth="1" style="12" min="1026" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -6202,8 +6202,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -6216,24 +6216,24 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="B5" pane="topRight" sqref="$A5:$XFD6"/>
+      <selection pane="topRight" activeCell="B5" sqref="$A5:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="22" width="18.5"/>
-    <col customWidth="1" max="2" min="2" style="22" width="5.375"/>
-    <col customWidth="1" max="1018" min="3" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="1019" min="1019" style="27" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1020" style="27" width="9"/>
+    <col width="18.5" customWidth="1" style="22" min="1" max="1"/>
+    <col width="5.375" customWidth="1" style="22" min="2" max="2"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="3" max="1018"/>
+    <col width="8.78333333333333" customWidth="1" style="27" min="1019" max="1019"/>
+    <col width="9" customWidth="1" style="27" min="1020" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -6300,7 +6300,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6313,25 +6313,25 @@
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="C1" pane="bottomRight" sqref="C1:C3"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1021" min="1" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="1024" min="1022" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="1026" min="1025" style="17" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="17" width="9"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="1" max="1021"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="1022" max="1024"/>
+    <col width="8.78333333333333" customWidth="1" style="17" min="1025" max="1026"/>
+    <col width="9" customWidth="1" style="17" min="1027" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3">
+    <row r="1" customFormat="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6420,8 +6420,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -6434,27 +6434,27 @@
   <dimension ref="A1:AMR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="M1" pane="bottomRight" sqref="M1:P4"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="1035" min="1" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1036" style="17" width="9"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="1" max="1035"/>
+    <col width="9" customWidth="1" style="17" min="1036" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.1" r="2" s="3">
+          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customFormat="1" customHeight="1" s="3">
       <c r="A2" s="18" t="n"/>
       <c r="B2" s="18" t="n"/>
       <c r="C2" s="18" t="n"/>
@@ -8757,8 +8757,8 @@
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="M2:P2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -8771,31 +8771,31 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G3" pane="bottomRight" sqref="G3"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="22" width="8"/>
-    <col customWidth="1" max="5" min="2" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="6" min="6" style="22" width="16.125"/>
-    <col customWidth="1" max="1025" min="7" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="1027" min="1026" style="24" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1028" style="24" width="9"/>
+    <col width="8" customWidth="1" style="22" min="1" max="1"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="2" max="5"/>
+    <col width="16.125" customWidth="1" style="22" min="6" max="6"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="7" max="1025"/>
+    <col width="8.78333333333333" customWidth="1" style="24" min="1026" max="1027"/>
+    <col width="9" customWidth="1" style="24" min="1028" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="3">
+          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="3">
       <c r="C2" s="25" t="inlineStr">
         <is>
           <t>!Structure</t>
@@ -9052,8 +9052,8 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -9066,24 +9066,24 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="H1" pane="bottomRight" sqref="H1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="6" min="1" style="22" width="16.3916666666667"/>
-    <col customWidth="1" max="1026" min="7" style="22" width="9.108333333333331"/>
-    <col customWidth="1" max="16384" min="1027" style="22" width="9"/>
+    <col width="16.3916666666667" customWidth="1" style="22" min="1" max="6"/>
+    <col width="9.108333333333331" customWidth="1" style="22" min="7" max="1026"/>
+    <col width="9" customWidth="1" style="22" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -9316,8 +9316,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -9338,28 +9338,28 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="D7" pane="bottomRight" sqref="D2:D7"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="4" width="10.7166666666667"/>
-    <col customWidth="1" max="3" min="3" style="22" width="10.7166666666667"/>
-    <col customWidth="1" max="4" min="4" style="22" width="10.6"/>
-    <col customWidth="1" max="5" min="5" style="22" width="9.75"/>
-    <col customWidth="1" max="7" min="6" style="22" width="8.78333333333333"/>
-    <col customWidth="1" max="1026" min="8" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="4" width="9"/>
+    <col width="10.7166666666667" customWidth="1" style="4" min="1" max="2"/>
+    <col width="10.7166666666667" customWidth="1" style="22" min="3" max="3"/>
+    <col width="10.6" customWidth="1" style="22" min="4" max="4"/>
+    <col width="9.75" customWidth="1" style="22" min="5" max="5"/>
+    <col width="8.78333333333333" customWidth="1" style="22" min="6" max="7"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="8" max="1026"/>
+    <col width="9" customWidth="1" style="4" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tests/fixtures/test_model.xlsx
+++ b/tests/fixtures/test_model.xlsx
@@ -1611,7 +1611,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4123,7 +4123,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4358,7 +4358,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4840,7 +4840,7 @@
     <row r="1" customFormat="1" s="22">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5123,7 +5123,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5212,7 +5212,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5552,7 +5552,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5794,7 +5794,7 @@
     <row r="1" customFormat="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6016,7 +6016,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6135,7 +6135,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -6331,7 +6331,7 @@
     <row r="1" customFormat="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6450,7 +6450,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -9083,7 +9083,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -9359,7 +9359,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
